--- a/biology/Botanique/Briq/Briq..xlsx
+++ b/biology/Botanique/Briq/Briq..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Isaac Briquet est un botaniste suisse, né le 13 mars 1870 à Genève et mort le 26 octobre 1931 dans cette même ville.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils d’un papetier et philanthrope, Édouard et de Lucie Amélie née Bosson. John Briquet étudie à Genève et à Berlin. Il se marie en 1896 avec Esther Cuchet. Reçu docteur en 1891, il devient conservateur du jardin botanique de Genève en 1896 avant de le diriger de 1906 à 1931. Outre l’agrandissement du Jardin, on lui doit de nombreux travaux en taxinomie végétale ainsi que l’histoire des sciences[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils d’un papetier et philanthrope, Édouard et de Lucie Amélie née Bosson. John Briquet étudie à Genève et à Berlin. Il se marie en 1896 avec Esther Cuchet. Reçu docteur en 1891, il devient conservateur du jardin botanique de Genève en 1896 avant de le diriger de 1906 à 1931. Outre l’agrandissement du Jardin, on lui doit de nombreux travaux en taxinomie végétale ainsi que l’histoire des sciences.
 Il contribue grandement à l'adoption des règles de nomenclature botanique : il est l'auteur des documents préparatoires et l'éditeur des deux premières éditions des Règles internationales de la nomenclature botanique (1906 et 1912), qui deviendront le Code international de la nomenclature botanique, et on lui doit aussi la compilation préparatoire à la troisième édition publiée en 1935 (quatre ans après sa mort).
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste non exhaustive[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste non exhaustive
 Les Labiées des Alpes Maritimes, Matériaux pour servir à l'Histoire de la Flore des Alpes Maritimes, Genève, 1891-1895, 3 volumes.
 Monographie du genre Galeopsis, Académie Royale des Sciences, des Lettres et des Beaux-Arts de Belgique, Mémoires couronnés et Mémoires des Savants étrangers, Tome LII (1893), xi-323 p.
 Études sur les Cytises des Alpes Maritimes, Matériaux pour servir à l'Histoire de la Flore des Alpes Maritimes, Genève, 1894, 202 p.
